--- a/biology/Microbiologie/Bifidobacterium_adolescentis/Bifidobacterium_adolescentis.xlsx
+++ b/biology/Microbiologie/Bifidobacterium_adolescentis/Bifidobacterium_adolescentis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bifidobacterium adolescentis[3] est une espèce de bactéries à Gram positif, de la famille des Bifidobacteriaceae. On la retrouve dans le tube digestif de tous les êtres vivants hétérotrophes d’où son anaérobiose stricte. La colonisation du tube digestif par Bifidobacterium adolescentis se fait immédiatement après la naissance.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bifidobacterium adolescentis est une espèce de bactéries à Gram positif, de la famille des Bifidobacteriaceae. On la retrouve dans le tube digestif de tous les êtres vivants hétérotrophes d’où son anaérobiose stricte. La colonisation du tube digestif par Bifidobacterium adolescentis se fait immédiatement après la naissance.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est Henry Tissier qui isole cette bactérie en 1899 dans les excréments de nouveau-nés allaités.
-Gerhard Reuter (d), vétérinaire allemand, en fait une description en 1963[1].
+Gerhard Reuter (d), vétérinaire allemand, en fait une description en 1963.
 </t>
         </is>
       </c>
@@ -543,14 +557,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Bifidobacterium adolescentis Reuter 1963[4].
-Bifidobacterium adolescentis a pour synonyme[4] :
-Bifidobacterium stercoris Kim et al. 2010
-Étymologie
-L'étymologie du nom spécifique est la suivante : ad.o.le.scen.tis. L. n. adolescens -tis, adolescent; L. gen. masc./fem. n. adolescentis, d'un adolescent[4].
-</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Bifidobacterium adolescentis Reuter 1963.
+Bifidobacterium adolescentis a pour synonyme :
+Bifidobacterium stercoris Kim et al. 2010</t>
         </is>
       </c>
     </row>
@@ -575,10 +588,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom spécifique est la suivante : ad.o.le.scen.tis. L. n. adolescens -tis, adolescent; L. gen. masc./fem. n. adolescentis, d'un adolescent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bifidobacterium_adolescentis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bifidobacterium_adolescentis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Structure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bifidobacterium adolescentis possède une forme particulière irrégulière et un génome de 2,1 Mpb. Comme toutes les bactéries, son chromosome est circulaire ; il est constitué de 1 633 gènes. Chez B. adolescentis, les transferts de génomes sont limités.
 B. adolescentis n’est pas mobile. En effet, elle ne possède aucun flagelle.
@@ -587,31 +639,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Bifidobacterium_adolescentis</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bifidobacterium_adolescentis</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Métabolisme et intérêts</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">B. adolescentis représente un intérêt pour les scientifiques étant donné ses propriétés bénéfiques pour la santé. B. adolescentis peut être reconnue comme :
 Probiotique
@@ -626,36 +680,38 @@
 la vitamine B2 (Riboflavine) ;
 la vitamine C.
 Les prébiotiques sont quant à eux des molécules en général issues de l’alimentation qui, dans la plupart des cas sont des oligosaccharides ou des polysaccharides à courte chaine constitués de deux à vingt unités de sucres environ, ils représentent une source sélective de nourriture pour les bactéries intestinales. Ce sont eux qui fournissent l’énergie aux probiotiques. Ils échappent à la digestion dans l’intestin grêle, ce sont donc des substrats potentiels pour l’hydrolyse et la fermentation pour les bactéries intestinales. Ces prébiotiques modulent ainsi la composition en bactéries de la flore intestinale.
-B. adolescentis produit des enzymes, les glycosyl hydrolases. Ces enzymes dégradent un large éventail d’oligosaccharides. Par ailleurs, certaines de ces glycosyl hydrolases[5] peuvent être utilisées pour préparer des oligosaccharides, prébiotiques potentiels par transglycosylation, ce qui permet d'allonger les oligosaccharides. La transglycosylation est un transfert de résidus osidiques d'un transporteur vers la cible moléculaire. De tels oligosaccharides peuvent influencer la composition microbienne au niveau des parties les plus distales du colon. Les produits de rencontre enzymes-substrat ne sont pas tous transglycosylés naturellement.
+B. adolescentis produit des enzymes, les glycosyl hydrolases. Ces enzymes dégradent un large éventail d’oligosaccharides. Par ailleurs, certaines de ces glycosyl hydrolases peuvent être utilisées pour préparer des oligosaccharides, prébiotiques potentiels par transglycosylation, ce qui permet d'allonger les oligosaccharides. La transglycosylation est un transfert de résidus osidiques d'un transporteur vers la cible moléculaire. De tels oligosaccharides peuvent influencer la composition microbienne au niveau des parties les plus distales du colon. Les produits de rencontre enzymes-substrat ne sont pas tous transglycosylés naturellement.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Bifidobacterium_adolescentis</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bifidobacterium_adolescentis</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(de) G. Reuter, « Vergleichenden Untersuchung über die Bifidus-Flora im Säuglings- und Erwachsenenstuhl », Zentralblatt für Bakteriologie, Parasitenkunde, Infektionskrankheiten und Hygiene. Abteilung I, vol. 191,‎ 1963, p. 486-507.</t>
         </is>
